--- a/doc/技术问题记录.xlsx
+++ b/doc/技术问题记录.xlsx
@@ -4,10 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5610" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="技术问题记录" sheetId="1" r:id="rId1"/>
+    <sheet name="创业考虑" sheetId="2" r:id="rId2"/>
+    <sheet name="创业资源" sheetId="3" r:id="rId3"/>
+    <sheet name="记录" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,12 +96,176 @@
     <t>具体在env.production文件中配置。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>第一层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满足客户的需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握客户人脉资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立起自己的开发队伍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与第三方合作完成项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎样建立队伍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎样管理队伍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎样完成项目实现过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎样合作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利润和风险怎样分担</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合作资源怎样掌握</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿到项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做成项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签订合同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成立公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合作公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解客户的需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导客户的需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发客户的需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现客户的需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与市场销售人员合作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己开发满足市场的产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">处理项目过程与客户的对接 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品的推广与销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多种资源整合的方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己拿到项目，找人实现项目，过程监控项目的完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他方交给我项目，我组织队伍完成，过程监控项目实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自主研发产品，组织兼职人员完成，后找市场人员销售，过程监控项目实现，共担风险。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入项目队伍，担任开发角色，完成项目，可以担任管理，开发，维护多种角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与人合作开发产品，他方负责投资运营，我负责项目实现，后续共同推广开发市场。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由人协作平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.freemancn.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30257002@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>称呼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +290,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -141,12 +316,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -159,9 +338,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -431,7 +620,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -441,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -464,7 +653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="195.75" customHeight="1">
+    <row r="2" spans="1:3" ht="190.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -486,7 +675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="105.75" customHeight="1">
+    <row r="4" spans="1:3" ht="99.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -513,4 +702,292 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4"/>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4"/>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4"/>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="5"/>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5"/>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="5"/>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="5"/>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="28.125" customWidth="1"/>
+    <col min="3" max="3" width="38.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="C1" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/技术问题记录.xlsx
+++ b/doc/技术问题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5610" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5610"/>
   </bookViews>
   <sheets>
     <sheet name="技术问题记录" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,6 +258,14 @@
   </si>
   <si>
     <t>情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用MapStruct映射DTO与数据库实体Entity之间，总不容易映射符合要求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mapper中要用上uses,Entity中要加上关联表的实体，DTO中则只是声明关联表的一个小的数据对象，也是一个DTO.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -338,14 +346,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -620,7 +628,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -628,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -695,6 +703,14 @@
       </c>
       <c r="C5" s="3" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="40.5">
+      <c r="A6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -731,10 +747,10 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
@@ -742,36 +758,36 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
       <c r="C3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
       <c r="C5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
       <c r="C6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
@@ -779,23 +795,23 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
       <c r="C8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="4"/>
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C10" t="s">
@@ -803,29 +819,29 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
       <c r="C11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
       <c r="C12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
       <c r="C13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C14" t="s">
@@ -833,12 +849,12 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="s">
@@ -846,21 +862,21 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
       <c r="C17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B19" t="s">
@@ -868,13 +884,13 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="4"/>
+      <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="4"/>
+      <c r="A21" s="6"/>
       <c r="B21" t="s">
         <v>36</v>
       </c>
@@ -933,7 +949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -975,10 +991,10 @@
       <c r="A1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>53</v>
       </c>
     </row>

--- a/doc/技术问题记录.xlsx
+++ b/doc/技术问题记录.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5610" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="技术问题记录" sheetId="1" r:id="rId1"/>
     <sheet name="创业考虑" sheetId="2" r:id="rId2"/>
     <sheet name="创业资源" sheetId="3" r:id="rId3"/>
     <sheet name="记录" sheetId="4" r:id="rId4"/>
+    <sheet name="git" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="182">
   <si>
     <t>问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,6 +268,378 @@
   <si>
     <t>Mapper中要用上uses,Entity中要加上关联表的实体，DTO中则只是声明关联表的一个小的数据对象，也是一个DTO.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git 常用命令常用命令</t>
+  </si>
+  <si>
+    <t>创建新仓库</t>
+  </si>
+  <si>
+    <t>创建新文件夹，打开，然后执行</t>
+  </si>
+  <si>
+    <t>git init</t>
+  </si>
+  <si>
+    <t>以创建新的 git 仓库。</t>
+  </si>
+  <si>
+    <t>检出仓库</t>
+  </si>
+  <si>
+    <t>执行如下命令以创建一个本地仓库的克隆版本：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git clone /path/to/repository </t>
+  </si>
+  <si>
+    <t>如果是远端服务器上的仓库，你的命令会是这个样子：</t>
+  </si>
+  <si>
+    <t>git clone username@host:/path/to/repository</t>
+  </si>
+  <si>
+    <t>工作流</t>
+  </si>
+  <si>
+    <t>你的本地仓库由 git 维护的三棵“树”组成。第一个是你的 工作目录，它持有实际文件；第二个是 缓存区（Index），它像个缓存区域，临时保存你的改动；最后是 HEAD，指向你最近一次提交后的结果。</t>
+  </si>
+  <si>
+    <t>添加与提交</t>
+  </si>
+  <si>
+    <t>你可以计划改动（把它们添加到缓存区），使用如下命令：</t>
+  </si>
+  <si>
+    <t>git add &lt;filename&gt;</t>
+  </si>
+  <si>
+    <t>git add *</t>
+  </si>
+  <si>
+    <t># 添加所有文件</t>
+  </si>
+  <si>
+    <t>git  add .</t>
+  </si>
+  <si>
+    <t>这是 git 基本工作流程的第一步；使用如下命令以实际提交改动：</t>
+  </si>
+  <si>
+    <t>git commit -m "代码提交信息"</t>
+  </si>
+  <si>
+    <t>现在，你的改动已经提交到了 HEAD，但是还没到你的远端仓库。</t>
+  </si>
+  <si>
+    <t>推送改动</t>
+  </si>
+  <si>
+    <t>你的改动现在已经在本地仓库的 HEAD 中了。执行如下命令以将这些改动提交到远端仓库：</t>
+  </si>
+  <si>
+    <t>git push origin master</t>
+  </si>
+  <si>
+    <t>可以把 master 换成你想要推送的任何分支。</t>
+  </si>
+  <si>
+    <t>如果你还没有克隆现有仓库，并欲将你的仓库连接到某个远程服务器，你可以使用如下命令添加：</t>
+  </si>
+  <si>
+    <t># 注意 server必须是存在的仓库</t>
+  </si>
+  <si>
+    <t>git remote add origin &lt;server&gt;</t>
+  </si>
+  <si>
+    <t>git remote add origin https://github.com/gdutxiaoxu/test2.git</t>
+  </si>
+  <si>
+    <t>该命令是移除本地缓存已有的remote信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git remote remove origin </t>
+  </si>
+  <si>
+    <t>如此你就能够将你的改动推送到所添加的服务器上去了。</t>
+  </si>
+  <si>
+    <t>分支</t>
+  </si>
+  <si>
+    <t>分支是用来将特性开发绝缘开来的。在你创建仓库的时候，master 是“默认的”。在其他分支上进行开发，完成后再将它们合并到主分支上。</t>
+  </si>
+  <si>
+    <t>创建一个叫做“feature_x”的分支，并切换过去：</t>
+  </si>
+  <si>
+    <t>git checkout -b feature_x</t>
+  </si>
+  <si>
+    <t>切换回主分支：</t>
+  </si>
+  <si>
+    <t>git checkout master</t>
+  </si>
+  <si>
+    <t>切换回分支：</t>
+  </si>
+  <si>
+    <t>git checkout &lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>git checkout  feature_x</t>
+  </si>
+  <si>
+    <t>再把新建的分支删掉：</t>
+  </si>
+  <si>
+    <t>git branch -d feature_x</t>
+  </si>
+  <si>
+    <t>除非你将分支推送到远端仓库，不然该分支就是 不为他人所见的：</t>
+  </si>
+  <si>
+    <t>git push origin &lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>git push origin  feature_x</t>
+  </si>
+  <si>
+    <t>更新与合并</t>
+  </si>
+  <si>
+    <t>要更新你的本地仓库至最新改动，执行：</t>
+  </si>
+  <si>
+    <t>git pull</t>
+  </si>
+  <si>
+    <t>以在你的工作目录中 获取（fetch） 并 合并（merge） 远端的改动。</t>
+  </si>
+  <si>
+    <t>要合并其他分支到你的当前分支（例如 master），执行：</t>
+  </si>
+  <si>
+    <t>git merge &lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>git merge feature_x</t>
+  </si>
+  <si>
+    <t>两种情况下，git 都会尝试去自动合并改动。不幸的是，自动合并并非次次都能成功，并可能导致 冲突（conflicts）。 这时候就需要你修改这些文件来人肉合并这些 冲突（conflicts） 了。改完之后，你需要执行如下命令以将它们标记为合并成功：</t>
+  </si>
+  <si>
+    <t>在合并改动之前，也可以使用如下命令查看：</t>
+  </si>
+  <si>
+    <t>git diff &lt;source_branch&gt; &lt;target_branch&gt;</t>
+  </si>
+  <si>
+    <t>标签</t>
+  </si>
+  <si>
+    <t>在软件发布时创建标签，是被推荐的。这是个旧有概念，在 SVN 中也有。可以执行如下命令以创建一个叫做 1.0.0 的标签：</t>
+  </si>
+  <si>
+    <t>git tag 1.0.0 1b2e1d63ff</t>
+  </si>
+  <si>
+    <t>1b2e1d63ff 是你想要标记的提交 ID 的前 10 位字符。使用如下命令获取提交 ID：</t>
+  </si>
+  <si>
+    <t>git log</t>
+  </si>
+  <si>
+    <t>你也可以用该提交 ID 的少一些的前几位，只要它是唯一的。</t>
+  </si>
+  <si>
+    <t>替换本地改动</t>
+  </si>
+  <si>
+    <t>假如你做错事（自然，这是不可能的），你可以使用如下命令替换掉本地改动：</t>
+  </si>
+  <si>
+    <t>git checkout -- &lt;filename&gt;</t>
+  </si>
+  <si>
+    <t>此命令会使用 HEAD 中的最新内容替换掉你的工作目录中的文件。已添加到缓存区的改动，以及新文件，都不受影响。</t>
+  </si>
+  <si>
+    <t>假如你想要丢弃你所有的本地改动与提交，可以到服务器上获取最新的版本并将你本地主分支指向到它：</t>
+  </si>
+  <si>
+    <t>git fetch origin</t>
+  </si>
+  <si>
+    <t>git reset --hard origin/master</t>
+  </si>
+  <si>
+    <t>有用的贴士</t>
+  </si>
+  <si>
+    <t>内建的图形化 git：</t>
+  </si>
+  <si>
+    <t>gitk</t>
+  </si>
+  <si>
+    <t>彩色的 git 输出：</t>
+  </si>
+  <si>
+    <t>git config color.ui true</t>
+  </si>
+  <si>
+    <t>显示历史记录时，只显示一行注释信息：</t>
+  </si>
+  <si>
+    <t>git config format.pretty oneline</t>
+  </si>
+  <si>
+    <t>交互地添加文件至缓存区：</t>
+  </si>
+  <si>
+    <t>git add -i</t>
+  </si>
+  <si>
+    <t>到此 git常用的命令已经 讲解完毕，下面开始讲解Git 实例教程</t>
+  </si>
+  <si>
+    <t>Git实例教程</t>
+  </si>
+  <si>
+    <t>大概分为以下两步</t>
+  </si>
+  <si>
+    <t>github账号的注册与Repo的创建</t>
+  </si>
+  <si>
+    <t>实例教程</t>
+  </si>
+  <si>
+    <t>Github注册</t>
+  </si>
+  <si>
+    <t>打开https://github.com/，在下图的框中，分别输入自己的用户名，邮箱，密码。</t>
+  </si>
+  <si>
+    <t>然后前往自己刚才填写的邮箱，点开Github发送给你的注册确认信，确认注册，结束注册流程。</t>
+  </si>
+  <si>
+    <t>一定要确认注册，否则无法使用gh-pages！</t>
+  </si>
+  <si>
+    <t>创建代码库</t>
+  </si>
+  <si>
+    <t>登陆之后，点击页面右上角的加号，选择New repository：</t>
+  </si>
+  <si>
+    <t>新建代码库</t>
+  </si>
+  <si>
+    <t>进入代码库创建页面：</t>
+  </si>
+  <si>
+    <t>到此我们就创建好了repo，地址 为：https://github.com/gdutxiaoxu/test.git</t>
+  </si>
+  <si>
+    <t>这里我们把仓库建在 G://test 目录下</t>
+  </si>
+  <si>
+    <t>首先打开命令行，进入G 盘，输入以下命令</t>
+  </si>
+  <si>
+    <t># 在 test目录下创建 README.md 文件</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> echo "# test" &gt;&gt; README.md</t>
+  </si>
+  <si>
+    <t>接着初始化仓库</t>
+  </si>
+  <si>
+    <t>可以看到如下图片的效果</t>
+  </si>
+  <si>
+    <t>将 README.md 文件添加到版本控制</t>
+  </si>
+  <si>
+    <t>git add README.md</t>
+  </si>
+  <si>
+    <t>提交文件到本地缓存，并添加说明</t>
+  </si>
+  <si>
+    <t>git commit -m "first commit"</t>
+  </si>
+  <si>
+    <t>将本地仓库与远程仓库 https://github.com/gdutxiaoxu/test.git 联系起来</t>
+  </si>
+  <si>
+    <t>git remote add origin https://github.com/gdutxiaoxu/test.git</t>
+  </si>
+  <si>
+    <t>将本地仓库缓存的文件提交到远程仓库中</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> git push -u origin master</t>
+  </si>
+  <si>
+    <t>如果你没有配置ssh ，那么在这里需要输入你的github 账户的用户名和密码</t>
+  </si>
+  <si>
+    <t>正确输入你的用户名和密码后，可以看到</t>
+  </si>
+  <si>
+    <t>同时我们登陆我们的github 仓库 ： https://github.com/gdutxiaoxu/test.git ，可以看到：</t>
+  </si>
+  <si>
+    <t>说明已经提交成功了。</t>
+  </si>
+  <si>
+    <t>注意事项：</t>
+  </si>
+  <si>
+    <t>如果我们本地已经存在仓库了，那我们只需要执行以下命令就可以将我们本地仓库与远程绑定起来</t>
+  </si>
+  <si>
+    <t>git push -u origin master</t>
+  </si>
+  <si>
+    <t>git pull  https://github.com/gdutxiaoxu/test.git master</t>
+  </si>
+  <si>
+    <t>如果本地仓库已经绑定别的远程仓库，我们可以用以下命令将其删除相应的仓库信息</t>
+  </si>
+  <si>
+    <t># 该命令是移除本地缓存已有的remote信息</t>
+  </si>
+  <si>
+    <t>如果我们remote repo （即远端仓库已经存在了），那么我们只需要执行以下命令就OK了</t>
+  </si>
+  <si>
+    <t>git clone https://github.com/gdutxiaoxu/test.git  "you path"</t>
+  </si>
+  <si>
+    <t>比如我们想储存在 G://test 目录下，那么我们可以输入一下命令</t>
+  </si>
+  <si>
+    <t>git clone https://github.com/gdutxiaoxu/test.git  G://test</t>
+  </si>
+  <si>
+    <t>效果图如下</t>
+  </si>
+  <si>
+    <t>————————————————</t>
+  </si>
+  <si>
+    <t>版权声明：本文为CSDN博主「gdutxiaoxu」的原创文章，遵循CC 4.0 BY-SA版权协议，转载请附上原文出处链接及本声明。</t>
+  </si>
+  <si>
+    <t>原文链接：https://blog.csdn.net/gdutxiaoxu/article/details/53573339</t>
   </si>
 </sst>
 </file>
@@ -628,7 +1001,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -638,7 +1011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1006,4 +1379,930 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A255"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection sqref="A1:A255"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/技术问题记录.xlsx
+++ b/doc/技术问题记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5610" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="技术问题记录" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="创业资源" sheetId="3" r:id="rId3"/>
     <sheet name="记录" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,12 +268,42 @@
     <t>Mapper中要用上uses,Entity中要加上关联表的实体，DTO中则只是声明关联表的一个小的数据对象，也是一个DTO.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>作为一个多年从事外包项目接单的软件开发人士，我想从以下几方面谈谈我的经验，希望对大家会有所帮助。</t>
+  </si>
+  <si>
+    <t>第一点， 到哪里接项目</t>
+  </si>
+  <si>
+    <t>软件团队或SOHO最为关心的一点是在哪里可以找到项目做，也就是到哪里可以找到有外包需求的客户。对于一般人来说，广交朋友然后通过熟人介绍还是接项目的第一途径，但这要求你的朋友或熟人要在企业或公司里有比效重要的管理位置，对于像那些每天只能是埋头写代码的程序员这显然是不太现实的。所以大家不能等着项目来找你，而是要主动的出击去找项目。</t>
+  </si>
+  <si>
+    <t>现在网上有很多软件外包网站，在这里你可以找到不少的软件外包信息。比如软件项目交易网（sxsoft.com）上就有大量的软件外包信，因为这里发布信息是不收费的，所以发包方挺多。不过这里每天外包的项目虽然很多，但竞争也很激烈。一般一个外包信息发出后一天内就会好几个个竞争者，所以能第一时间与客户取得联系是非常关键的。因为客户一般都是先入为主的，一般来说，如果第一个谈项目的人他觉得满意了，就会对其他的竞争者不再予以考虑，所以你要经常上网站上看看有什么最新的项目，并立即与项目的发包方取得直接的联系。其他比如软件外包网、维客网、中国软件网，还有CSDN的外包频道上也有很多外包的信息，大家可以自己上去看看。</t>
+  </si>
+  <si>
+    <t>第二点， 如何与客户谈需求</t>
+  </si>
+  <si>
+    <t>接项目最重要的一步是与客户谈需求。客户对软件的需求是项目规划和实施的根本，所以在与客户谈需求时，一定要让用户将所有的想法尽可能的阐述清楚，并把所有的要求罗列出来。这时候不应该害怕“勾引”起客户的潜在需求而增加设计开发的工作量。而应该直接明白地要客户把项目的要求一条条地列出来。这时先把条理、归纳、分析先都扔到一边去，用纸笔将用户最原始、最完整的要求准确地记录下来。假如项目在你对客户的需求没有完全了解清楚的情况下就匆匆上马，那么就会随时发生意想不到的变更，轻则使项目延期或超出预算，重则使得原来已经做好的软件要彻底推倒重来。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">所以我们在实施项目之前应该深入了解和挖掘客户需求，对某些不明确的需求要与发包方反复进行讨论，对于项目实施过程中的需求变更要规定处理办法，并形成项目的最终需求。在需求分析阶段，接包方首先对发包方的需求认真分析，然后通过业务建模、会谈、问卷、需求会议等方式收集客户完整需求，形成文档，然后经过客户讨论、客户审查、文档修订等多次反复的过程。有一点需要注意，即使双方谈的很投缘，在讨论需求时也一定要详细周到，精确到每一条不能再划分的软件功能为止。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">第三点， 如何合理地报价 </t>
+  </si>
+  <si>
+    <t>在完全了解客户的需求后，下一步就是要确定一个合理的报价。接包方要从跟客户的交谈中尽量地了解出客户的准确意思，思考客户想要的是怎样的一个软件，项目复杂的程度多大，客户的要求有多高，客户的性格如何，能够接受的价格范围等等，这些因素对于软件项目的报价都是密切相关的。如果客户要的是一个小型的软件系统，不太苛求有多全面的功能，只要满足某一方面的需要，并且客户又是一个比较随和的人，那么项目可以报一个接近成本的价格；相反如果客户要求的是一个面面俱到的管理系统，需要有各方面的功能，缺一不可，并且客户又是那种对项目要求严格苛刻，绝不变通的人，那就要充分考虑各种不稳定的因素，报一个比较高的价格。</t>
+  </si>
+  <si>
+    <t>在很多的情况下，客户在跟接包方谈项目之前，心理都已经有一个价格底线。如果要投入的费用超过了客户的预算范围，客户将不再与你谈该项目，他会转而找其它软件团队商谈。所以跟客户谈项目的过程中要迅速地思考客户需求的真正含义，能够通过某种转换和变通，把客户对于技术的要求与自己团队的技术力量可以接受的价格相对比，从而得出一个双方都能接受的报价。在与客户的谈判当中，灵活变通是成功的关键之一。当然并不是所有的客户都可以通过变通而满足，遇到客户不认同项目费用的情况一定要处之泰然，真诚地为客户解释，把客户的需求细化为技术上的要求给他分析，让他同意你的报价的合理性。即使客户对编程技术不是很了解，但经过你的细致的分析后也会对你的报价表示认同的。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +336,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -333,7 +369,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -354,6 +390,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -628,7 +667,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -638,7 +677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -974,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -998,6 +1037,56 @@
         <v>53</v>
       </c>
     </row>
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15">
+      <c r="A4" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15">
+      <c r="A9" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15">
+      <c r="A10" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15">
+      <c r="A11" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1005,5 +1094,6 @@
     <hyperlink ref="C1" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>